--- a/public/templates/项目计划导入模板.xlsx
+++ b/public/templates/项目计划导入模板.xlsx
@@ -19,49 +19,64 @@
     <t>schedureNo</t>
   </si>
   <si>
+    <t>workType</t>
+  </si>
+  <si>
+    <t>workTodoList</t>
+  </si>
+  <si>
+    <t>planStartDate</t>
+  </si>
+  <si>
+    <t>planEndDate</t>
+  </si>
+  <si>
+    <t>actualStartDate</t>
+  </si>
+  <si>
+    <t>actualEndDate</t>
+  </si>
+  <si>
+    <t>schedureDays</t>
+  </si>
+  <si>
     <t>schedureStatus</t>
   </si>
   <si>
-    <t>workType</t>
-  </si>
-  <si>
-    <t>workTodoList</t>
-  </si>
-  <si>
     <t>workOnduty</t>
   </si>
   <si>
     <t>workAssist</t>
   </si>
   <si>
-    <t>planStartDate</t>
-  </si>
-  <si>
-    <t>planEndDate</t>
-  </si>
-  <si>
-    <t>actualStartDate</t>
-  </si>
-  <si>
-    <t>actualEndDate</t>
-  </si>
-  <si>
-    <t>schedureDays</t>
-  </si>
-  <si>
     <t>remark</t>
   </si>
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>状态</t>
-  </si>
-  <si>
     <t>任务类型</t>
   </si>
   <si>
-    <t>任务列表</t>
+    <t>主要任务/关键步骤</t>
+  </si>
+  <si>
+    <t>计划开始日期</t>
+  </si>
+  <si>
+    <t>计划完成日期</t>
+  </si>
+  <si>
+    <t>实际开始日期</t>
+  </si>
+  <si>
+    <t>实际完成日期</t>
+  </si>
+  <si>
+    <t>实际天数</t>
+  </si>
+  <si>
+    <t>开发状态</t>
   </si>
   <si>
     <t>负责人</t>
@@ -70,31 +85,16 @@
     <t>协助人</t>
   </si>
   <si>
-    <t>计划开始日期</t>
-  </si>
-  <si>
-    <t>计划结束日期</t>
-  </si>
-  <si>
-    <t>实际开始日期</t>
-  </si>
-  <si>
-    <t>实际结束日期</t>
-  </si>
-  <si>
-    <t>天数</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
+    <t>启动</t>
+  </si>
+  <si>
+    <t>需求调研</t>
+  </si>
+  <si>
     <t>未开始</t>
-  </si>
-  <si>
-    <t>启动</t>
-  </si>
-  <si>
-    <t>需求调研</t>
   </si>
   <si>
     <t>张三</t>
@@ -113,8 +113,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -138,6 +138,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -145,7 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,14 +199,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,40 +259,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,60 +280,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -296,187 +296,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,11 +514,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,17 +551,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,23 +573,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,16 +607,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,115 +625,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -747,10 +747,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1077,14 +1077,16 @@
   <sheetPr/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="14.8141592920354" style="2" customWidth="1"/>
-    <col min="2" max="12" width="18.6548672566372" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6548672566372" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.8938053097345" style="2" customWidth="1"/>
+    <col min="4" max="12" width="18.6548672566372" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1092,7 +1094,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1113,7 +1115,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1174,29 +1176,30 @@
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3">
+        <v>44562</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44563</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44564</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44565</v>
+      </c>
+      <c r="H3" s="1">
+        <f>G3-F3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" s="4">
-        <v>44562</v>
-      </c>
-      <c r="H3" s="4">
-        <v>44563</v>
-      </c>
-      <c r="I3" s="4">
-        <v>44564</v>
-      </c>
-      <c r="J3" s="4">
-        <v>44565</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>29</v>
@@ -1204,7 +1207,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
       <formula1>"未开始,进行中,完成"</formula1>
     </dataValidation>
   </dataValidations>
